--- a/DESIGN/rules/Tower Motor Rater/model.xlsx
+++ b/DESIGN/rules/Tower Motor Rater/model.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="5820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary" sheetId="4" r:id="rId2"/>
     <sheet name="Properties" sheetId="8" r:id="rId3"/>
     <sheet name="Hist" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="852">
   <si>
     <t>Vocabulary</t>
   </si>
@@ -3797,6 +3798,18 @@
   </si>
   <si>
     <t>new MtrRateRgn</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>org.openl.rules.binding.MulDivNullToOneOperators.*</t>
+  </si>
+  <si>
+    <t>//Environment</t>
+  </si>
+  <si>
+    <t>_DEFAULT_</t>
   </si>
 </sst>
 </file>
@@ -4155,7 +4168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4199,6 +4212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4439,7 +4458,7 @@
     <xf numFmtId="167" fontId="37" fillId="7" borderId="12" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4593,25 +4612,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4623,6 +4627,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name=" 1" xfId="13"/>
@@ -5014,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q92"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5034,11 +5054,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="20.25" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickTop="1">
@@ -5049,19 +5069,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.75">
       <c r="B4" s="3"/>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="3"/>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="83" t="s">
         <v>439</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="N4" s="88" t="s">
+      <c r="J4" s="83"/>
+      <c r="N4" s="83" t="s">
         <v>440</v>
       </c>
-      <c r="O4" s="88"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="3"/>
@@ -5263,10 +5283,10 @@
         <v>49</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="O12" s="88"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="49"/>
     </row>
@@ -5321,10 +5341,10 @@
       <c r="F15" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="J15" s="88"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="31"/>
       <c r="N15" s="24" t="s">
         <v>8</v>
@@ -5446,16 +5466,16 @@
     <row r="22" spans="1:17" s="49" customFormat="1" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="5"/>
       <c r="F22" s="58"/>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="J22" s="90"/>
+      <c r="J22" s="85"/>
       <c r="N22" s="66"/>
     </row>
     <row r="23" spans="1:17" s="18" customFormat="1">
@@ -5567,7 +5587,9 @@
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="91" t="s">
+        <v>851</v>
+      </c>
       <c r="F28" s="43" t="s">
         <v>466</v>
       </c>
@@ -5692,10 +5714,10 @@
     </row>
     <row r="36" spans="1:17" s="66" customFormat="1">
       <c r="B36" s="68"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="68"/>
       <c r="F36" s="19"/>
       <c r="G36" s="9"/>
@@ -5771,10 +5793,10 @@
     </row>
     <row r="42" spans="1:17" s="18" customFormat="1" ht="15.75">
       <c r="B42" s="5"/>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="83"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:17" s="31" customFormat="1">
@@ -5903,10 +5925,10 @@
     </row>
     <row r="51" spans="1:17" s="49" customFormat="1">
       <c r="B51" s="5"/>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="83"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="5"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -5950,7 +5972,9 @@
       <c r="D54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="91">
+        <v>0</v>
+      </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:17" s="18" customFormat="1">
@@ -5980,10 +6004,10 @@
     </row>
     <row r="58" spans="1:17" s="18" customFormat="1">
       <c r="B58" s="5"/>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="87"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="5"/>
       <c r="F58" s="19"/>
     </row>
@@ -6065,10 +6089,10 @@
     <row r="64" spans="1:17">
       <c r="A64" s="18"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="83"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="5"/>
       <c r="F64" s="19"/>
     </row>
@@ -6147,10 +6171,10 @@
     <row r="71" spans="1:17">
       <c r="A71" s="18"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="87" t="s">
         <v>377</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="88"/>
       <c r="E71" s="5"/>
       <c r="F71" s="39"/>
       <c r="J71" s="18"/>
@@ -6222,10 +6246,10 @@
     </row>
     <row r="77" spans="1:17">
       <c r="B77" s="5"/>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="D77" s="85"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:17">
@@ -6285,10 +6309,10 @@
     </row>
     <row r="83" spans="2:5" ht="15.75">
       <c r="B83" s="68"/>
-      <c r="C83" s="84" t="s">
+      <c r="C83" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="D83" s="85"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="68"/>
     </row>
     <row r="84" spans="2:5">
@@ -6367,12 +6391,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C4:D4"/>
@@ -6383,6 +6401,12 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6393,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A288" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
@@ -6417,11 +6441,11 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" thickBot="1">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="18"/>
       <c r="G2" s="31"/>
     </row>
@@ -11128,4 +11152,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>